--- a/data/ROS_data_MEGA.xlsx
+++ b/data/ROS_data_MEGA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/ROS_focused/HOOH_dynamics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dkm/Documents/Talmy_research/Zinser_lab/Projects/HOOH_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5022C39B-B83F-4D4D-8919-681AA480DA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9519523-2FA2-1B43-BE11-0341986DA2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="500" windowWidth="25660" windowHeight="15760" firstSheet="1" activeTab="6" xr2:uid="{82133392-E207-734F-898E-6135EBC32761}"/>
+    <workbookView xWindow="3460" yWindow="500" windowWidth="25660" windowHeight="15760" firstSheet="2" activeTab="7" xr2:uid="{82133392-E207-734F-898E-6135EBC32761}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffers_Morris_2011_f1c,d" sheetId="13" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="BCC_1-31-dataset" sheetId="3" r:id="rId5"/>
     <sheet name="BCC_2-5-dataset" sheetId="4" r:id="rId6"/>
     <sheet name="media_Hs-LG" sheetId="44" r:id="rId7"/>
+    <sheet name="HOTS-main_days" sheetId="46" r:id="rId8"/>
+    <sheet name="EL-EZ55" sheetId="45" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5243" uniqueCount="140">
   <si>
     <t>strain</t>
   </si>
@@ -387,6 +389,102 @@
   <si>
     <t>light</t>
   </si>
+  <si>
+    <t>Time (hours)</t>
+  </si>
+  <si>
+    <t>3-spike</t>
+  </si>
+  <si>
+    <t>EL-EZ55</t>
+  </si>
+  <si>
+    <t>8-spike</t>
+  </si>
+  <si>
+    <t>abiotic</t>
+  </si>
+  <si>
+    <t>Time (hrs)</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>A_tech1</t>
+  </si>
+  <si>
+    <t>A_tech2</t>
+  </si>
+  <si>
+    <t>B_tech1</t>
+  </si>
+  <si>
+    <t>B_tech2</t>
+  </si>
+  <si>
+    <t>C_tech1</t>
+  </si>
+  <si>
+    <t>C_tech2</t>
+  </si>
+  <si>
+    <t>D_tech1</t>
+  </si>
+  <si>
+    <t>D_tech2</t>
+  </si>
+  <si>
+    <t>light (T/F)</t>
+  </si>
+  <si>
+    <t>https://www.when2meet.com/?23439408-61Ud3</t>
+  </si>
+  <si>
+    <t>bottle (PC/plexi)</t>
+  </si>
+  <si>
+    <t>HOTs_day1</t>
+  </si>
+  <si>
+    <t>3s_plexitube</t>
+  </si>
+  <si>
+    <t>Plexi</t>
+  </si>
+  <si>
+    <t>8s_plexitube</t>
+  </si>
+  <si>
+    <t>Dark_3s_PC</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Dark_un_PC</t>
+  </si>
+  <si>
+    <t>Dark_un_Plexi</t>
+  </si>
+  <si>
+    <t>Light_3s_PC</t>
+  </si>
+  <si>
+    <t>Light_un_PC</t>
+  </si>
+  <si>
+    <t>Light_un_Plexi</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>un_plexitube</t>
+  </si>
+  <si>
+    <t>HOTs_day2</t>
+  </si>
 </sst>
 </file>
 
@@ -395,7 +493,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -437,6 +535,11 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -480,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -513,6 +616,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -29438,7 +29545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96114A87-3F7D-AF4E-ADB7-95F3B93D28D7}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -31815,4 +31922,6714 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48F0922-7C63-D346-800F-DC8C1F968661}">
+  <dimension ref="A1:N131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2">
+        <v>242.30053216200722</v>
+      </c>
+      <c r="E2">
+        <v>240.19612804441473</v>
+      </c>
+      <c r="F2">
+        <v>327.78733451789049</v>
+      </c>
+      <c r="G2">
+        <v>372.35572730498836</v>
+      </c>
+      <c r="H2">
+        <v>423.56960677922018</v>
+      </c>
+      <c r="I2">
+        <v>347.5442321864839</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>300</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="23">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="23">
+        <v>413.32112516348081</v>
+      </c>
+      <c r="E3" s="23">
+        <v>445.52488514482002</v>
+      </c>
+      <c r="F3" s="23">
+        <v>500.03969197096922</v>
+      </c>
+      <c r="G3" s="23">
+        <v>506.37975477500777</v>
+      </c>
+      <c r="H3" s="23">
+        <v>565.06980677226557</v>
+      </c>
+      <c r="I3" s="23">
+        <v>582.72565662967406</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="23">
+        <v>300</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4">
+        <v>784.04027126653773</v>
+      </c>
+      <c r="E4">
+        <v>803.05039075943046</v>
+      </c>
+      <c r="F4">
+        <v>966.66529367243868</v>
+      </c>
+      <c r="G4">
+        <v>998.27330926642128</v>
+      </c>
+      <c r="H4">
+        <v>1081.450972813846</v>
+      </c>
+      <c r="I4">
+        <v>1098.2794931417702</v>
+      </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>300</v>
+      </c>
+      <c r="N4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1155.8489206270801</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1268.8859641301049</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1414.85172979852</v>
+      </c>
+      <c r="G5">
+        <v>1470.4455891347266</v>
+      </c>
+      <c r="H5">
+        <v>1643.3423574180729</v>
+      </c>
+      <c r="I5">
+        <v>1708.9312972362418</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>300</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="23">
+        <v>987.27843130318638</v>
+      </c>
+      <c r="E6" s="23">
+        <v>966.08335633891761</v>
+      </c>
+      <c r="F6" s="23">
+        <v>1105.6687835264024</v>
+      </c>
+      <c r="G6">
+        <v>1156.1476318973605</v>
+      </c>
+      <c r="H6">
+        <v>1277.9882671076341</v>
+      </c>
+      <c r="I6">
+        <v>1341.5768483068475</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>300</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="23">
+        <v>983.28778298449811</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1014.3973870769455</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1067.9506121173049</v>
+      </c>
+      <c r="G7">
+        <v>1042.2446613411637</v>
+      </c>
+      <c r="H7">
+        <v>1264.5261221065762</v>
+      </c>
+      <c r="I7">
+        <v>1298.4013226789218</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="23">
+        <v>935.48391082043213</v>
+      </c>
+      <c r="E8" s="23">
+        <v>903.72318328490178</v>
+      </c>
+      <c r="F8" s="23">
+        <v>866.51517044976617</v>
+      </c>
+      <c r="G8">
+        <v>812.66323413912664</v>
+      </c>
+      <c r="H8">
+        <v>1128.8340103519577</v>
+      </c>
+      <c r="I8">
+        <v>1021.2744589062072</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>300</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9">
+        <v>886.87246513712262</v>
+      </c>
+      <c r="E9">
+        <v>755.07199066216685</v>
+      </c>
+      <c r="F9">
+        <v>823.02377019131677</v>
+      </c>
+      <c r="G9">
+        <v>813.03204601576215</v>
+      </c>
+      <c r="H9">
+        <v>769.99412895054979</v>
+      </c>
+      <c r="I9">
+        <v>820.54010344966059</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>800</v>
+      </c>
+      <c r="N9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="23">
+        <v>4</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="23">
+        <v>920.65704543646189</v>
+      </c>
+      <c r="E10" s="23">
+        <v>925.13771449066587</v>
+      </c>
+      <c r="F10" s="23">
+        <v>776.11770999129533</v>
+      </c>
+      <c r="G10" s="23">
+        <v>819.68760162211913</v>
+      </c>
+      <c r="H10" s="23">
+        <v>845.5210920417511</v>
+      </c>
+      <c r="I10" s="23">
+        <v>834.40668337283967</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="23">
+        <v>800</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11">
+        <v>1285.2693920308116</v>
+      </c>
+      <c r="E11">
+        <v>1281.1159628513528</v>
+      </c>
+      <c r="F11">
+        <v>1142.0222345525879</v>
+      </c>
+      <c r="G11">
+        <v>1137.5751285624601</v>
+      </c>
+      <c r="H11">
+        <v>1322.4841174787625</v>
+      </c>
+      <c r="I11">
+        <v>1266.6905579113011</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>800</v>
+      </c>
+      <c r="N11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12">
+        <v>1787.0560414869592</v>
+      </c>
+      <c r="E12">
+        <v>1470.1703720092999</v>
+      </c>
+      <c r="F12">
+        <v>1623.9160559306324</v>
+      </c>
+      <c r="G12">
+        <v>1565.5465311953046</v>
+      </c>
+      <c r="H12">
+        <v>1768.3211391194932</v>
+      </c>
+      <c r="I12">
+        <v>1809.4761682900178</v>
+      </c>
+      <c r="J12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>800</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13">
+        <v>1316.7502498095087</v>
+      </c>
+      <c r="E13">
+        <v>1377.8853710247347</v>
+      </c>
+      <c r="F13">
+        <v>1172.8888882586862</v>
+      </c>
+      <c r="G13">
+        <v>3909.1848132181876</v>
+      </c>
+      <c r="H13">
+        <v>1408.5116669944814</v>
+      </c>
+      <c r="I13">
+        <v>1490.0833379258486</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>800</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14">
+        <v>1344.6646502018796</v>
+      </c>
+      <c r="E14">
+        <v>1379.5903746798176</v>
+      </c>
+      <c r="F14">
+        <v>1165.3808308247876</v>
+      </c>
+      <c r="G14">
+        <v>1235.1047401371734</v>
+      </c>
+      <c r="H14">
+        <v>1375.6064389739447</v>
+      </c>
+      <c r="I14">
+        <v>1385.0242347537924</v>
+      </c>
+      <c r="J14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>800</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15">
+        <v>24</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15">
+        <v>1357.2918385638445</v>
+      </c>
+      <c r="E15">
+        <v>1392.2779765571204</v>
+      </c>
+      <c r="F15">
+        <v>1208.1308691953532</v>
+      </c>
+      <c r="G15">
+        <v>1284.500265194873</v>
+      </c>
+      <c r="H15">
+        <v>1156.759243319962</v>
+      </c>
+      <c r="I15">
+        <v>1201.3578428647284</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>800</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16">
+        <v>179.28420120529702</v>
+      </c>
+      <c r="E16">
+        <v>271.43494993355648</v>
+      </c>
+      <c r="F16">
+        <v>243.38797543808371</v>
+      </c>
+      <c r="G16">
+        <v>209.1939257570119</v>
+      </c>
+      <c r="H16">
+        <v>301.50913349924588</v>
+      </c>
+      <c r="I16">
+        <v>359.82663548525522</v>
+      </c>
+      <c r="J16">
+        <v>267.52653112185567</v>
+      </c>
+      <c r="K16">
+        <v>266.33000788753077</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>300</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="23">
+        <v>4</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="23">
+        <v>200.69911423926627</v>
+      </c>
+      <c r="E17" s="23">
+        <v>219.46422336440097</v>
+      </c>
+      <c r="F17" s="23">
+        <v>219.29472989081498</v>
+      </c>
+      <c r="G17" s="23">
+        <v>215.73536694550907</v>
+      </c>
+      <c r="H17" s="23">
+        <v>218.45733144210791</v>
+      </c>
+      <c r="I17" s="23">
+        <v>212.17600400020316</v>
+      </c>
+      <c r="J17" s="23">
+        <v>166.71147740226453</v>
+      </c>
+      <c r="K17" s="23">
+        <v>163.22091873831531</v>
+      </c>
+      <c r="L17" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="23">
+        <v>300</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18">
+        <v>233.85942154678386</v>
+      </c>
+      <c r="E18">
+        <v>244.60128020444679</v>
+      </c>
+      <c r="F18">
+        <v>223.14609149358589</v>
+      </c>
+      <c r="G18">
+        <v>230.38228810846519</v>
+      </c>
+      <c r="H18">
+        <v>235.65336732166932</v>
+      </c>
+      <c r="I18">
+        <v>229.79996894673909</v>
+      </c>
+      <c r="J18">
+        <v>179.96049694643719</v>
+      </c>
+      <c r="K18">
+        <v>184.80532524587053</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>300</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19">
+        <v>176.29747033069947</v>
+      </c>
+      <c r="E19">
+        <v>233.93532026916097</v>
+      </c>
+      <c r="F19">
+        <v>193.25017399570669</v>
+      </c>
+      <c r="G19">
+        <v>219.37566307280355</v>
+      </c>
+      <c r="H19">
+        <v>209.47120286384768</v>
+      </c>
+      <c r="I19">
+        <v>222.82258975345343</v>
+      </c>
+      <c r="J19">
+        <v>166.83939887396014</v>
+      </c>
+      <c r="K19">
+        <v>172.31017831841905</v>
+      </c>
+      <c r="L19" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>300</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20">
+        <v>114.74616712092569</v>
+      </c>
+      <c r="E20">
+        <v>139.76407508350019</v>
+      </c>
+      <c r="F20">
+        <v>123.34166783090063</v>
+      </c>
+      <c r="G20">
+        <v>137.44822366222616</v>
+      </c>
+      <c r="H20">
+        <v>138.1429790886084</v>
+      </c>
+      <c r="I20">
+        <v>141.40866522324546</v>
+      </c>
+      <c r="J20">
+        <v>78.246334937802828</v>
+      </c>
+      <c r="K20">
+        <v>93.601436752771747</v>
+      </c>
+      <c r="L20" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>300</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21">
+        <v>89.060354183230118</v>
+      </c>
+      <c r="E21">
+        <v>141.53956117314357</v>
+      </c>
+      <c r="F21">
+        <v>102.80442892253018</v>
+      </c>
+      <c r="G21">
+        <v>139.72379940660846</v>
+      </c>
+      <c r="H21">
+        <v>113.27946122078549</v>
+      </c>
+      <c r="I21">
+        <v>143.65403420995898</v>
+      </c>
+      <c r="J21">
+        <v>78.199346648095798</v>
+      </c>
+      <c r="K21">
+        <v>94.467363805943762</v>
+      </c>
+      <c r="L21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>300</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22">
+        <v>128.48352924741044</v>
+      </c>
+      <c r="E22">
+        <v>149.56448979381918</v>
+      </c>
+      <c r="F22">
+        <v>134.06171049691392</v>
+      </c>
+      <c r="G22">
+        <v>126.5570093694231</v>
+      </c>
+      <c r="H22">
+        <v>139.59625976311798</v>
+      </c>
+      <c r="I22">
+        <v>152.83353223486392</v>
+      </c>
+      <c r="J22">
+        <v>100.06232658748542</v>
+      </c>
+      <c r="K22">
+        <v>106.55342317986793</v>
+      </c>
+      <c r="L22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>300</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23">
+        <v>-40.255157225070761</v>
+      </c>
+      <c r="E23">
+        <v>1.443593583491861</v>
+      </c>
+      <c r="F23">
+        <v>-26.687288572171994</v>
+      </c>
+      <c r="G23">
+        <v>6.2598932784602539</v>
+      </c>
+      <c r="H23">
+        <v>-21.570599453719495</v>
+      </c>
+      <c r="I23">
+        <v>13.199056776263149</v>
+      </c>
+      <c r="J23">
+        <v>-17.58162928823522</v>
+      </c>
+      <c r="K23">
+        <v>12.554645945995603</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="23">
+        <v>4</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="23">
+        <v>-8.6958080739991033</v>
+      </c>
+      <c r="E24" s="23">
+        <v>-9.9393195980310196</v>
+      </c>
+      <c r="F24" s="23">
+        <v>-11.293589233515164</v>
+      </c>
+      <c r="G24" s="23">
+        <v>-10.521638759757153</v>
+      </c>
+      <c r="H24" s="23">
+        <v>-17.813214430362621</v>
+      </c>
+      <c r="I24" s="23">
+        <v>-12.045401868827298</v>
+      </c>
+      <c r="J24" s="23">
+        <v>-21.209796514897832</v>
+      </c>
+      <c r="K24" s="23">
+        <v>-12.157838133483352</v>
+      </c>
+      <c r="L24" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="23">
+        <v>0</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25">
+        <v>-18.116960160254351</v>
+      </c>
+      <c r="E25">
+        <v>-18.162270296757541</v>
+      </c>
+      <c r="F25">
+        <v>-13.035512259082125</v>
+      </c>
+      <c r="G25">
+        <v>-15.191939125993059</v>
+      </c>
+      <c r="H25">
+        <v>-11.95142528941328</v>
+      </c>
+      <c r="I25">
+        <v>-12.783789278508863</v>
+      </c>
+      <c r="J25">
+        <v>-15.356398139967595</v>
+      </c>
+      <c r="K25">
+        <v>-11.651035865929188</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="23">
+        <v>-44.883503761211124</v>
+      </c>
+      <c r="E26">
+        <v>-22.678180568241842</v>
+      </c>
+      <c r="F26">
+        <v>-41.025429545624945</v>
+      </c>
+      <c r="G26">
+        <v>-21.058762726553866</v>
+      </c>
+      <c r="H26">
+        <v>-39.817159238873288</v>
+      </c>
+      <c r="I26">
+        <v>-19.900837015916863</v>
+      </c>
+      <c r="J26">
+        <v>-37.890639360885928</v>
+      </c>
+      <c r="K26">
+        <v>-19.49472394059201</v>
+      </c>
+      <c r="L26" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="23">
+        <v>-52.926892067128726</v>
+      </c>
+      <c r="E27">
+        <v>-45.490995220994591</v>
+      </c>
+      <c r="F27">
+        <v>-51.93510352367008</v>
+      </c>
+      <c r="G27">
+        <v>-36.697472432968674</v>
+      </c>
+      <c r="H27">
+        <v>-46.689196608523318</v>
+      </c>
+      <c r="I27">
+        <v>-37.751352644968726</v>
+      </c>
+      <c r="J27">
+        <v>-48.536843285931056</v>
+      </c>
+      <c r="K27">
+        <v>-38.437717305331816</v>
+      </c>
+      <c r="L27" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="23">
+        <v>-65.872165881409643</v>
+      </c>
+      <c r="E28">
+        <v>-43.883324451733365</v>
+      </c>
+      <c r="F28">
+        <v>-63.712382708091056</v>
+      </c>
+      <c r="G28">
+        <v>-40.944878191841497</v>
+      </c>
+      <c r="H28">
+        <v>-60.453409186269234</v>
+      </c>
+      <c r="I28">
+        <v>-38.389050862420987</v>
+      </c>
+      <c r="J28">
+        <v>-56.882299168536569</v>
+      </c>
+      <c r="K28">
+        <v>-41.2536583813447</v>
+      </c>
+      <c r="L28" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="23">
+        <v>-49.778676656759146</v>
+      </c>
+      <c r="E29">
+        <v>-39.840653383726796</v>
+      </c>
+      <c r="F29">
+        <v>-46.32839366970164</v>
+      </c>
+      <c r="G29">
+        <v>-36.673978288115165</v>
+      </c>
+      <c r="H29">
+        <v>-44.866722229172908</v>
+      </c>
+      <c r="I29">
+        <v>-36.0278893046438</v>
+      </c>
+      <c r="J29">
+        <v>-46.873793460943709</v>
+      </c>
+      <c r="K29">
+        <v>-35.702327583102381</v>
+      </c>
+      <c r="L29" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30">
+        <v>42.924184475557638</v>
+      </c>
+      <c r="E30">
+        <v>59.558039031838746</v>
+      </c>
+      <c r="F30">
+        <v>107.82843778656729</v>
+      </c>
+      <c r="G30">
+        <v>108.77491619352276</v>
+      </c>
+      <c r="H30">
+        <v>290.63637889168479</v>
+      </c>
+      <c r="I30">
+        <v>304.24452322147533</v>
+      </c>
+      <c r="J30">
+        <v>157.50680707930229</v>
+      </c>
+      <c r="K30">
+        <v>161.76763806380572</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="23">
+        <v>4</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="23">
+        <v>26.080560768798833</v>
+      </c>
+      <c r="E31" s="23">
+        <v>22.932345358429245</v>
+      </c>
+      <c r="F31" s="23">
+        <v>81.525064469865328</v>
+      </c>
+      <c r="G31" s="23">
+        <v>81.756649611992742</v>
+      </c>
+      <c r="H31" s="23">
+        <v>255.09980664755565</v>
+      </c>
+      <c r="I31" s="23">
+        <v>263.40330870006562</v>
+      </c>
+      <c r="J31" s="23">
+        <v>189.12489159250774</v>
+      </c>
+      <c r="K31" s="23">
+        <v>197.16827989842531</v>
+      </c>
+      <c r="L31" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0</v>
+      </c>
+      <c r="N31" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32">
+        <v>41.439018890175419</v>
+      </c>
+      <c r="E32">
+        <v>47.131314557538758</v>
+      </c>
+      <c r="F32">
+        <v>105.52768974412768</v>
+      </c>
+      <c r="G32">
+        <v>108.83532970886034</v>
+      </c>
+      <c r="H32">
+        <v>307.73340373222072</v>
+      </c>
+      <c r="I32">
+        <v>304.93927864785746</v>
+      </c>
+      <c r="J32">
+        <v>255.69890734131999</v>
+      </c>
+      <c r="K32">
+        <v>245.17688675335771</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33">
+        <v>61.046560923628618</v>
+      </c>
+      <c r="E33">
+        <v>57.498945050749455</v>
+      </c>
+      <c r="F33">
+        <v>127.69105910700142</v>
+      </c>
+      <c r="G33">
+        <v>133.43369937047942</v>
+      </c>
+      <c r="H33">
+        <v>371.2263301988163</v>
+      </c>
+      <c r="I33">
+        <v>387.75446110325663</v>
+      </c>
+      <c r="J33">
+        <v>316.64607539771794</v>
+      </c>
+      <c r="K33" s="23">
+        <v>310.07274929834819</v>
+      </c>
+      <c r="L33" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34">
+        <v>22.42889939728272</v>
+      </c>
+      <c r="E34">
+        <v>31.197249887251331</v>
+      </c>
+      <c r="F34">
+        <v>93.471837127872305</v>
+      </c>
+      <c r="G34">
+        <v>98.888915669808881</v>
+      </c>
+      <c r="H34">
+        <v>297.37080769862143</v>
+      </c>
+      <c r="I34">
+        <v>289.52040701114333</v>
+      </c>
+      <c r="J34">
+        <v>232.52193344333793</v>
+      </c>
+      <c r="K34" s="23">
+        <v>239.04994940620449</v>
+      </c>
+      <c r="L34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35">
+        <v>41.890442102003448</v>
+      </c>
+      <c r="E35">
+        <v>39.183580984238972</v>
+      </c>
+      <c r="F35">
+        <v>105.20044986938245</v>
+      </c>
+      <c r="G35">
+        <v>102.99032209994922</v>
+      </c>
+      <c r="H35">
+        <v>328.72038769921539</v>
+      </c>
+      <c r="I35">
+        <v>331.24097381135562</v>
+      </c>
+      <c r="J35">
+        <v>280.61276980525759</v>
+      </c>
+      <c r="K35" s="23">
+        <v>275.38028811574134</v>
+      </c>
+      <c r="L35" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36">
+        <v>32.947563678837383</v>
+      </c>
+      <c r="E36">
+        <v>33.185861433780076</v>
+      </c>
+      <c r="F36">
+        <v>109.00817948885398</v>
+      </c>
+      <c r="G36">
+        <v>112.79577126987965</v>
+      </c>
+      <c r="H36">
+        <v>336.22341067350237</v>
+      </c>
+      <c r="I36">
+        <v>334.82383090151507</v>
+      </c>
+      <c r="J36">
+        <v>287.9496556123662</v>
+      </c>
+      <c r="K36" s="23">
+        <v>275.41888563942928</v>
+      </c>
+      <c r="L36" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37">
+        <v>384.93012926122458</v>
+      </c>
+      <c r="E37">
+        <v>411.295594246468</v>
+      </c>
+      <c r="F37">
+        <v>306.03846899636073</v>
+      </c>
+      <c r="G37">
+        <v>388.50459558536488</v>
+      </c>
+      <c r="H37">
+        <v>634.46647620990598</v>
+      </c>
+      <c r="I37">
+        <v>419.02181159686324</v>
+      </c>
+      <c r="J37">
+        <v>266.15212364792558</v>
+      </c>
+      <c r="K37">
+        <v>510.79161954785513</v>
+      </c>
+      <c r="L37" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>300</v>
+      </c>
+      <c r="N37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="23">
+        <v>4</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="23">
+        <v>231.53014489987928</v>
+      </c>
+      <c r="E38" s="23">
+        <v>230.88069961000028</v>
+      </c>
+      <c r="F38" s="23">
+        <v>212.71972563824139</v>
+      </c>
+      <c r="G38" s="23">
+        <v>229.82178493838873</v>
+      </c>
+      <c r="H38" s="23">
+        <v>231.25996223406398</v>
+      </c>
+      <c r="I38" s="23">
+        <v>235.69196484535721</v>
+      </c>
+      <c r="J38" s="23">
+        <v>247.34841699910302</v>
+      </c>
+      <c r="K38" s="23">
+        <v>258.25809097714819</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="23">
+        <v>300</v>
+      </c>
+      <c r="N38" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39">
+        <v>242.04713102823015</v>
+      </c>
+      <c r="E39">
+        <v>248.85036411652348</v>
+      </c>
+      <c r="F39">
+        <v>248.64562942565723</v>
+      </c>
+      <c r="G39">
+        <v>256.53630579002709</v>
+      </c>
+      <c r="H39">
+        <v>251.76028177195039</v>
+      </c>
+      <c r="I39">
+        <v>253.54415862761286</v>
+      </c>
+      <c r="J39">
+        <v>271.89812021781131</v>
+      </c>
+      <c r="K39">
+        <v>274.67378561693238</v>
+      </c>
+      <c r="L39" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>300</v>
+      </c>
+      <c r="N39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40">
+        <v>216.81144497736398</v>
+      </c>
+      <c r="E40">
+        <v>237.15401811409112</v>
+      </c>
+      <c r="F40">
+        <v>227.61203899716065</v>
+      </c>
+      <c r="G40">
+        <v>236.62036539527577</v>
+      </c>
+      <c r="H40" s="23">
+        <v>221.90631810416676</v>
+      </c>
+      <c r="I40" s="23">
+        <v>239.42623755206574</v>
+      </c>
+      <c r="J40" s="23">
+        <v>253.11325508243584</v>
+      </c>
+      <c r="K40" s="23">
+        <v>269.3745596274685</v>
+      </c>
+      <c r="L40" t="b">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>300</v>
+      </c>
+      <c r="N40" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41">
+        <v>152.01123716499126</v>
+      </c>
+      <c r="E41">
+        <v>154.71306382314424</v>
+      </c>
+      <c r="F41">
+        <v>154.94800527167928</v>
+      </c>
+      <c r="G41">
+        <v>158.94872250959031</v>
+      </c>
+      <c r="H41" s="23">
+        <v>149.31947942606115</v>
+      </c>
+      <c r="I41" s="23">
+        <v>153.08525521543714</v>
+      </c>
+      <c r="J41" s="23">
+        <v>165.65126640565438</v>
+      </c>
+      <c r="K41" s="23">
+        <v>172.66259049122158</v>
+      </c>
+      <c r="L41" t="b">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>300</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42">
+        <v>20</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42">
+        <v>158.80775764046928</v>
+      </c>
+      <c r="E42">
+        <v>165.91977091826584</v>
+      </c>
+      <c r="F42">
+        <v>154.96814311012514</v>
+      </c>
+      <c r="G42">
+        <v>159.16352611967949</v>
+      </c>
+      <c r="H42" s="23">
+        <v>154.24653723248178</v>
+      </c>
+      <c r="I42" s="23">
+        <v>157.08261614694055</v>
+      </c>
+      <c r="J42" s="23">
+        <v>166.13121822194739</v>
+      </c>
+      <c r="K42" s="23">
+        <v>172.65252157199865</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>300</v>
+      </c>
+      <c r="N42" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43">
+        <v>24</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43">
+        <v>179.0295037465213</v>
+      </c>
+      <c r="E43">
+        <v>126.98997289600908</v>
+      </c>
+      <c r="F43">
+        <v>182.17436285048319</v>
+      </c>
+      <c r="G43">
+        <v>182.17436285048319</v>
+      </c>
+      <c r="H43" s="23">
+        <v>163.14410551914466</v>
+      </c>
+      <c r="I43" s="23">
+        <v>177.54937262075049</v>
+      </c>
+      <c r="J43" s="23">
+        <v>187.38670670155352</v>
+      </c>
+      <c r="K43" s="23">
+        <v>194.28056006285328</v>
+      </c>
+      <c r="L43" t="b">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>300</v>
+      </c>
+      <c r="N43" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44">
+        <v>24.899140913308329</v>
+      </c>
+      <c r="E44">
+        <v>29.39155703993913</v>
+      </c>
+      <c r="F44">
+        <v>27.314003373607818</v>
+      </c>
+      <c r="G44">
+        <v>34.44112003023875</v>
+      </c>
+      <c r="H44">
+        <v>20.452034923180719</v>
+      </c>
+      <c r="I44">
+        <v>26.595753802372101</v>
+      </c>
+      <c r="J44">
+        <v>20.50237951929536</v>
+      </c>
+      <c r="K44">
+        <v>37.082533173054173</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="23">
+        <v>4</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="23">
+        <v>-3.7922444124319838</v>
+      </c>
+      <c r="E45" s="23">
+        <v>-1.1223026651515937</v>
+      </c>
+      <c r="F45" s="23">
+        <v>-13.132845144903783</v>
+      </c>
+      <c r="G45" s="23">
+        <v>-12.758616980451535</v>
+      </c>
+      <c r="H45" s="23">
+        <v>-6.4521172404894429</v>
+      </c>
+      <c r="I45" s="23">
+        <v>-6.334646516221909</v>
+      </c>
+      <c r="J45" s="23">
+        <v>-6.4353357084512197</v>
+      </c>
+      <c r="K45" s="23">
+        <v>-11.132486525948266</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+      <c r="M45" s="23">
+        <v>0</v>
+      </c>
+      <c r="N45" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46">
+        <v>2.1886936059887034</v>
+      </c>
+      <c r="E46">
+        <v>-2.5067790583045202</v>
+      </c>
+      <c r="F46">
+        <v>-2.08388445094144</v>
+      </c>
+      <c r="G46">
+        <v>-8.2729134666360267</v>
+      </c>
+      <c r="H46">
+        <v>-6.3682095802983554</v>
+      </c>
+      <c r="I46">
+        <v>-4.0053698693173345</v>
+      </c>
+      <c r="J46">
+        <v>1.7255233217339025</v>
+      </c>
+      <c r="K46">
+        <v>-1.7683916486229521</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47">
+        <v>12</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47">
+        <v>-9.9946986537571263</v>
+      </c>
+      <c r="E47">
+        <v>-4.9082162929734352</v>
+      </c>
+      <c r="F47">
+        <v>-2.622571629368224</v>
+      </c>
+      <c r="G47">
+        <v>-3.825807476508416</v>
+      </c>
+      <c r="H47">
+        <v>-0.37720264265473702</v>
+      </c>
+      <c r="I47">
+        <v>0.39139152469562077</v>
+      </c>
+      <c r="J47" s="23">
+        <v>-0.32014543372478954</v>
+      </c>
+      <c r="K47" s="23">
+        <v>0.51389670857460601</v>
+      </c>
+      <c r="L47" t="b">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48">
+        <v>-24.752377928165515</v>
+      </c>
+      <c r="E48">
+        <v>-27.489445803598784</v>
+      </c>
+      <c r="F48">
+        <v>-27.402181837000043</v>
+      </c>
+      <c r="G48">
+        <v>-23.383004913846975</v>
+      </c>
+      <c r="H48">
+        <v>-24.248931967019004</v>
+      </c>
+      <c r="I48">
+        <v>-20.931223083063415</v>
+      </c>
+      <c r="J48" s="23">
+        <v>-20.818786818407361</v>
+      </c>
+      <c r="K48" s="23">
+        <v>-22.201585058356471</v>
+      </c>
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49">
+        <v>20</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49">
+        <v>-26.58827753314651</v>
+      </c>
+      <c r="E49">
+        <v>-22.991995217356518</v>
+      </c>
+      <c r="F49">
+        <v>-21.558852381292752</v>
+      </c>
+      <c r="G49">
+        <v>-22.548962771547579</v>
+      </c>
+      <c r="H49">
+        <v>-20.150881843286314</v>
+      </c>
+      <c r="I49">
+        <v>-17.997811282783019</v>
+      </c>
+      <c r="J49" s="23">
+        <v>-17.779651366286188</v>
+      </c>
+      <c r="K49" s="23">
+        <v>-16.287773168088663</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50">
+        <v>24</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50">
+        <v>-25.213870059216504</v>
+      </c>
+      <c r="E50">
+        <v>-24.868170499229223</v>
+      </c>
+      <c r="F50">
+        <v>-21.359152150037957</v>
+      </c>
+      <c r="G50">
+        <v>-22.045516810401054</v>
+      </c>
+      <c r="H50">
+        <v>-17.152022068056851</v>
+      </c>
+      <c r="I50">
+        <v>-15.2792030925918</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="K50" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51">
+        <v>38.305906858640213</v>
+      </c>
+      <c r="E51">
+        <v>32.026257569939247</v>
+      </c>
+      <c r="F51">
+        <v>156.09212392848056</v>
+      </c>
+      <c r="G51">
+        <v>152.13336052066506</v>
+      </c>
+      <c r="H51">
+        <v>197.69857631083298</v>
+      </c>
+      <c r="I51">
+        <v>188.21701070924016</v>
+      </c>
+      <c r="J51">
+        <v>80.261415107387563</v>
+      </c>
+      <c r="K51">
+        <v>65.792378184036522</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="23">
+        <v>4</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="23">
+        <v>79.20585674218367</v>
+      </c>
+      <c r="E52" s="23">
+        <v>83.607652595808105</v>
+      </c>
+      <c r="F52" s="23">
+        <v>149.39461449202798</v>
+      </c>
+      <c r="G52" s="23">
+        <v>149.66144085143566</v>
+      </c>
+      <c r="H52" s="23">
+        <v>229.69088898849063</v>
+      </c>
+      <c r="I52" s="23">
+        <v>222.81381715922916</v>
+      </c>
+      <c r="J52" s="23">
+        <v>90.467942893031392</v>
+      </c>
+      <c r="K52" s="23">
+        <v>81.932855698394008</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" s="23">
+        <v>0</v>
+      </c>
+      <c r="N52" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53">
+        <v>209.05631719429854</v>
+      </c>
+      <c r="E53">
+        <v>207.41172705455321</v>
+      </c>
+      <c r="F53">
+        <v>222.90947189184701</v>
+      </c>
+      <c r="G53">
+        <v>216.01058407093583</v>
+      </c>
+      <c r="H53">
+        <v>337.56593323655977</v>
+      </c>
+      <c r="I53">
+        <v>333.69275564213922</v>
+      </c>
+      <c r="J53">
+        <v>194.29024715387104</v>
+      </c>
+      <c r="K53">
+        <v>201.87382148194146</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="23">
+        <v>350.63203408151583</v>
+      </c>
+      <c r="E54" s="23">
+        <v>344.57893547533081</v>
+      </c>
+      <c r="F54" s="23">
+        <v>304.92585342222696</v>
+      </c>
+      <c r="G54">
+        <v>297.19795791862782</v>
+      </c>
+      <c r="H54">
+        <v>432.89678228606135</v>
+      </c>
+      <c r="I54">
+        <v>425.60352846225214</v>
+      </c>
+      <c r="J54">
+        <v>286.9142350856082</v>
+      </c>
+      <c r="K54" s="23">
+        <v>272.15319950479216</v>
+      </c>
+      <c r="L54" t="b">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55">
+        <v>16</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="23">
+        <v>247.92905800762534</v>
+      </c>
+      <c r="E55" s="23">
+        <v>269.63261339265193</v>
+      </c>
+      <c r="F55" s="23">
+        <v>241.04695171875235</v>
+      </c>
+      <c r="G55">
+        <v>232.53032420935702</v>
+      </c>
+      <c r="H55">
+        <v>311.84991354119541</v>
+      </c>
+      <c r="I55">
+        <v>343.96305324952823</v>
+      </c>
+      <c r="J55">
+        <v>214.40123514847076</v>
+      </c>
+      <c r="K55" s="23">
+        <v>214.77042885331153</v>
+      </c>
+      <c r="L55" t="b">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56">
+        <v>20</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="23">
+        <v>285.97782559787572</v>
+      </c>
+      <c r="E56" s="23">
+        <v>279.34240782996449</v>
+      </c>
+      <c r="F56" s="23">
+        <v>254.26240819884859</v>
+      </c>
+      <c r="G56">
+        <v>248.82015735885469</v>
+      </c>
+      <c r="H56">
+        <v>368.46576817852952</v>
+      </c>
+      <c r="I56">
+        <v>357.78096672979655</v>
+      </c>
+      <c r="J56">
+        <v>236.42196148901965</v>
+      </c>
+      <c r="K56" s="23">
+        <v>227.95400042253513</v>
+      </c>
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57">
+        <v>24</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="23">
+        <v>288.51687139525791</v>
+      </c>
+      <c r="E57" s="23">
+        <v>281.79251150754419</v>
+      </c>
+      <c r="F57" s="23">
+        <v>266.63878807703395</v>
+      </c>
+      <c r="G57">
+        <v>269.17951202762004</v>
+      </c>
+      <c r="H57">
+        <v>393.25376915218044</v>
+      </c>
+      <c r="I57">
+        <v>378.49944618417976</v>
+      </c>
+      <c r="J57">
+        <v>258.20271192142206</v>
+      </c>
+      <c r="K57" s="23">
+        <v>240.65594202226188</v>
+      </c>
+      <c r="L57" t="b">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58">
+        <v>7207515.371015246</v>
+      </c>
+      <c r="E58">
+        <v>7207515.371015246</v>
+      </c>
+      <c r="F58">
+        <v>27873.239414243908</v>
+      </c>
+      <c r="G58">
+        <v>26160.244393604422</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>26</v>
+      </c>
+      <c r="J58" t="s">
+        <v>26</v>
+      </c>
+      <c r="K58" t="s">
+        <v>26</v>
+      </c>
+      <c r="L58" t="s">
+        <v>26</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59">
+        <v>22980.705339188709</v>
+      </c>
+      <c r="E59">
+        <v>23188.339878791165</v>
+      </c>
+      <c r="F59">
+        <v>18227.83923196324</v>
+      </c>
+      <c r="G59">
+        <v>19533.375298408402</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>26</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" t="s">
+        <v>26</v>
+      </c>
+      <c r="L59" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60">
+        <v>5740.3672146336785</v>
+      </c>
+      <c r="E60">
+        <v>4294.1347835801025</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s">
+        <v>26</v>
+      </c>
+      <c r="K60" t="s">
+        <v>26</v>
+      </c>
+      <c r="L60" t="s">
+        <v>26</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61">
+        <v>37.221819888971368</v>
+      </c>
+      <c r="E61">
+        <v>63.894386910514129</v>
+      </c>
+      <c r="F61">
+        <v>28.342711287550543</v>
+      </c>
+      <c r="G61">
+        <v>29.35967212906651</v>
+      </c>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s">
+        <v>26</v>
+      </c>
+      <c r="J61" t="s">
+        <v>26</v>
+      </c>
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="23">
+        <v>4</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="23">
+        <v>450.62143642482658</v>
+      </c>
+      <c r="E62" s="23">
+        <v>457.27531387797978</v>
+      </c>
+      <c r="F62" s="23">
+        <v>441.67687984845679</v>
+      </c>
+      <c r="G62" s="23">
+        <v>442.07628031096635</v>
+      </c>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" t="s">
+        <v>26</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+      <c r="M62" s="23">
+        <v>0</v>
+      </c>
+      <c r="N62" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63">
+        <v>1056.4800531409785</v>
+      </c>
+      <c r="E63">
+        <v>1131.9080051931542</v>
+      </c>
+      <c r="F63">
+        <v>969.76652079310122</v>
+      </c>
+      <c r="G63">
+        <v>995.90040063621734</v>
+      </c>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64">
+        <v>12</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="23">
+        <v>1243.4800209492425</v>
+      </c>
+      <c r="E64" s="23">
+        <v>1274.2623851669448</v>
+      </c>
+      <c r="F64" s="23">
+        <v>1078.4621819578394</v>
+      </c>
+      <c r="G64">
+        <v>1060.3616215014181</v>
+      </c>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" t="s">
+        <v>26</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="23">
+        <v>881.92023503264465</v>
+      </c>
+      <c r="E65" s="23">
+        <v>951.37396167921509</v>
+      </c>
+      <c r="F65" s="23">
+        <v>822.98685082083273</v>
+      </c>
+      <c r="G65">
+        <v>867.28338278891135</v>
+      </c>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s">
+        <v>26</v>
+      </c>
+      <c r="J65" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66">
+        <v>20</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="23">
+        <v>339.77606100599303</v>
+      </c>
+      <c r="E66" s="23">
+        <v>341.89892480882759</v>
+      </c>
+      <c r="F66" s="23">
+        <v>587.47147389008194</v>
+      </c>
+      <c r="G66">
+        <v>602.35837096118462</v>
+      </c>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+      <c r="J66" t="s">
+        <v>26</v>
+      </c>
+      <c r="K66" t="s">
+        <v>26</v>
+      </c>
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67">
+        <v>24</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="23">
+        <v>-7.0226893297888324</v>
+      </c>
+      <c r="E67" s="23">
+        <v>-21.015130743254502</v>
+      </c>
+      <c r="F67" s="23">
+        <v>72.446255637189722</v>
+      </c>
+      <c r="G67">
+        <v>69.128546753234133</v>
+      </c>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" t="s">
+        <v>26</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" s="23">
+        <v>96.8033530656636</v>
+      </c>
+      <c r="E68" s="23">
+        <v>90.755288919090049</v>
+      </c>
+      <c r="F68" s="23">
+        <v>153.36382864727159</v>
+      </c>
+      <c r="G68">
+        <v>168.6249538828265</v>
+      </c>
+      <c r="H68">
+        <v>175.04556804064845</v>
+      </c>
+      <c r="I68">
+        <v>164.64773078976896</v>
+      </c>
+      <c r="J68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>300</v>
+      </c>
+      <c r="N68" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69">
+        <v>433.29320827036855</v>
+      </c>
+      <c r="E69">
+        <v>428.47690857540016</v>
+      </c>
+      <c r="F69">
+        <v>796.52946923758441</v>
+      </c>
+      <c r="G69">
+        <v>806.12850556344461</v>
+      </c>
+      <c r="H69">
+        <v>582.36020105944613</v>
+      </c>
+      <c r="I69">
+        <v>681.29404503755313</v>
+      </c>
+      <c r="J69" t="s">
+        <v>26</v>
+      </c>
+      <c r="K69" t="s">
+        <v>26</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>300</v>
+      </c>
+      <c r="N69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70">
+        <v>734.89090206121182</v>
+      </c>
+      <c r="E70">
+        <v>734.91103989965768</v>
+      </c>
+      <c r="F70">
+        <v>1104.7323740386698</v>
+      </c>
+      <c r="G70">
+        <v>1094.0358255175101</v>
+      </c>
+      <c r="H70">
+        <v>1124.7326039218174</v>
+      </c>
+      <c r="I70">
+        <v>1121.8696745560976</v>
+      </c>
+      <c r="J70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>300</v>
+      </c>
+      <c r="N70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71">
+        <v>1203.7475330269708</v>
+      </c>
+      <c r="E71">
+        <v>1261.0732464695211</v>
+      </c>
+      <c r="F71">
+        <v>1574.2099216898428</v>
+      </c>
+      <c r="G71">
+        <v>1535.3975943918535</v>
+      </c>
+      <c r="H71">
+        <v>1751.5370144312783</v>
+      </c>
+      <c r="I71">
+        <v>1648.2567536552733</v>
+      </c>
+      <c r="J71" t="s">
+        <v>26</v>
+      </c>
+      <c r="K71" t="s">
+        <v>26</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>300</v>
+      </c>
+      <c r="N71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="23">
+        <v>1106.2736823361888</v>
+      </c>
+      <c r="E72" s="23">
+        <v>1114.7449997090807</v>
+      </c>
+      <c r="F72" s="23">
+        <v>1296.4084403291918</v>
+      </c>
+      <c r="G72">
+        <v>974.46481709521379</v>
+      </c>
+      <c r="H72">
+        <v>1459.3436911946524</v>
+      </c>
+      <c r="I72">
+        <v>1385.7734547391074</v>
+      </c>
+      <c r="J72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>300</v>
+      </c>
+      <c r="N72" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73">
+        <v>749.30364543204325</v>
+      </c>
+      <c r="E73">
+        <v>772.67696325487248</v>
+      </c>
+      <c r="F73">
+        <v>647.35248199346472</v>
+      </c>
+      <c r="G73">
+        <v>600.10240038665984</v>
+      </c>
+      <c r="H73">
+        <v>748.30346612256551</v>
+      </c>
+      <c r="I73">
+        <v>772.36147045255404</v>
+      </c>
+      <c r="J73" t="s">
+        <v>26</v>
+      </c>
+      <c r="K73" t="s">
+        <v>26</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>300</v>
+      </c>
+      <c r="N73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" s="23">
+        <v>203.83001544900924</v>
+      </c>
+      <c r="E74" s="23">
+        <v>195.44596204271591</v>
+      </c>
+      <c r="F74" s="23">
+        <v>57.286965078479568</v>
+      </c>
+      <c r="G74">
+        <v>65.14072207236535</v>
+      </c>
+      <c r="H74">
+        <v>56.179383963957207</v>
+      </c>
+      <c r="I74">
+        <v>55.024814559727872</v>
+      </c>
+      <c r="J74" t="s">
+        <v>26</v>
+      </c>
+      <c r="K74" t="s">
+        <v>26</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>300</v>
+      </c>
+      <c r="N74" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D75">
+        <v>383.24473077599919</v>
+      </c>
+      <c r="E75">
+        <v>410.71945502896881</v>
+      </c>
+      <c r="F75">
+        <v>399.97927452450961</v>
+      </c>
+      <c r="G75">
+        <v>373.99475031653378</v>
+      </c>
+      <c r="H75">
+        <v>466.41400355740473</v>
+      </c>
+      <c r="I75">
+        <v>412.92790464519817</v>
+      </c>
+      <c r="J75" t="s">
+        <v>26</v>
+      </c>
+      <c r="K75" t="s">
+        <v>26</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>800</v>
+      </c>
+      <c r="N75" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
+        <v>129</v>
+      </c>
+      <c r="D76">
+        <v>971.39044042581247</v>
+      </c>
+      <c r="E76">
+        <v>1029.8572980469617</v>
+      </c>
+      <c r="F76">
+        <v>936.13579791992527</v>
+      </c>
+      <c r="G76">
+        <v>981.13715423360907</v>
+      </c>
+      <c r="H76">
+        <v>1353.0628924902139</v>
+      </c>
+      <c r="I76">
+        <v>1436.5543706867529</v>
+      </c>
+      <c r="J76" t="s">
+        <v>26</v>
+      </c>
+      <c r="K76" t="s">
+        <v>26</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>800</v>
+      </c>
+      <c r="N76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+      <c r="D77">
+        <v>1110.7644203096156</v>
+      </c>
+      <c r="E77">
+        <v>1203.5058789656205</v>
+      </c>
+      <c r="F77">
+        <v>1053.2037654185301</v>
+      </c>
+      <c r="G77">
+        <v>1115.2752961214883</v>
+      </c>
+      <c r="H77">
+        <v>1697.3997920759894</v>
+      </c>
+      <c r="I77">
+        <v>1698.6550506724479</v>
+      </c>
+      <c r="J77" t="s">
+        <v>26</v>
+      </c>
+      <c r="K77" t="s">
+        <v>26</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>800</v>
+      </c>
+      <c r="N77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78">
+        <v>1809.1043819351794</v>
+      </c>
+      <c r="E78">
+        <v>1749.8991369043483</v>
+      </c>
+      <c r="F78">
+        <v>1559.5092996243643</v>
+      </c>
+      <c r="G78">
+        <v>1519.193347055751</v>
+      </c>
+      <c r="H78">
+        <v>2257.6210324142085</v>
+      </c>
+      <c r="I78">
+        <v>2363.3849599318701</v>
+      </c>
+      <c r="J78" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" t="s">
+        <v>26</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>800</v>
+      </c>
+      <c r="N78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79">
+        <v>16</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79">
+        <v>1503.1636276528457</v>
+      </c>
+      <c r="E79">
+        <v>2022.9480883917763</v>
+      </c>
+      <c r="F79">
+        <v>1357.8221349762525</v>
+      </c>
+      <c r="G79">
+        <v>1179.6492530200903</v>
+      </c>
+      <c r="H79">
+        <v>1499.0353707714444</v>
+      </c>
+      <c r="I79">
+        <v>1459.0147731667034</v>
+      </c>
+      <c r="J79" t="s">
+        <v>26</v>
+      </c>
+      <c r="K79" t="s">
+        <v>26</v>
+      </c>
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>800</v>
+      </c>
+      <c r="N79" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80">
+        <v>2234.9928146138764</v>
+      </c>
+      <c r="E80">
+        <v>825.91469549291344</v>
+      </c>
+      <c r="F80">
+        <v>787.13593125900059</v>
+      </c>
+      <c r="G80">
+        <v>873.01038700496667</v>
+      </c>
+      <c r="H80">
+        <v>1085.8270637008245</v>
+      </c>
+      <c r="I80">
+        <v>1282.6140209937771</v>
+      </c>
+      <c r="J80" t="s">
+        <v>26</v>
+      </c>
+      <c r="K80" t="s">
+        <v>26</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>800</v>
+      </c>
+      <c r="N80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81">
+        <v>24</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81">
+        <v>88.47376421830279</v>
+      </c>
+      <c r="E81">
+        <v>92.964502191729764</v>
+      </c>
+      <c r="F81">
+        <v>109.4775297173357</v>
+      </c>
+      <c r="G81">
+        <v>129.7831834835788</v>
+      </c>
+      <c r="H81">
+        <v>243.42771844638708</v>
+      </c>
+      <c r="I81">
+        <v>239.65523004419583</v>
+      </c>
+      <c r="J81" t="s">
+        <v>26</v>
+      </c>
+      <c r="K81" t="s">
+        <v>26</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>800</v>
+      </c>
+      <c r="N81" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82">
+        <v>230.3407161065748</v>
+      </c>
+      <c r="E82">
+        <v>163.34884021001091</v>
+      </c>
+      <c r="F82">
+        <v>188.91718242343899</v>
+      </c>
+      <c r="G82">
+        <v>172.1557882236674</v>
+      </c>
+      <c r="H82">
+        <v>185.72869133617769</v>
+      </c>
+      <c r="I82">
+        <v>176.1833559128396</v>
+      </c>
+      <c r="J82">
+        <v>189.06485990537527</v>
+      </c>
+      <c r="K82">
+        <v>186.5509864060503</v>
+      </c>
+      <c r="L82" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>300</v>
+      </c>
+      <c r="N82" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
+        <v>139</v>
+      </c>
+      <c r="B83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83">
+        <v>231.4281593826513</v>
+      </c>
+      <c r="E83">
+        <v>238.39920779132683</v>
+      </c>
+      <c r="F83">
+        <v>225.98423038945361</v>
+      </c>
+      <c r="G83">
+        <v>240.38949749105939</v>
+      </c>
+      <c r="H83">
+        <v>247.73645221739099</v>
+      </c>
+      <c r="I83">
+        <v>252.06608748325107</v>
+      </c>
+      <c r="J83">
+        <v>249.71667299790067</v>
+      </c>
+      <c r="K83">
+        <v>186.13144810509488</v>
+      </c>
+      <c r="L83" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>300</v>
+      </c>
+      <c r="N83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84">
+        <v>176.05581626934918</v>
+      </c>
+      <c r="E84">
+        <v>194.96860287642016</v>
+      </c>
+      <c r="F84">
+        <v>179.83501728435573</v>
+      </c>
+      <c r="G84">
+        <v>196.59976779053488</v>
+      </c>
+      <c r="H84">
+        <v>196.6702502250954</v>
+      </c>
+      <c r="I84">
+        <v>221.04039105099474</v>
+      </c>
+      <c r="J84">
+        <v>192.48493613476398</v>
+      </c>
+      <c r="K84">
+        <v>213.2034155891472</v>
+      </c>
+      <c r="L84" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>300</v>
+      </c>
+      <c r="N84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85">
+        <v>204.91074611227043</v>
+      </c>
+      <c r="E85">
+        <v>270.11706699996807</v>
+      </c>
+      <c r="F85">
+        <v>194.00946290024444</v>
+      </c>
+      <c r="G85">
+        <v>271.25821117856685</v>
+      </c>
+      <c r="H85">
+        <v>237.39307952544414</v>
+      </c>
+      <c r="I85">
+        <v>283.683257499663</v>
+      </c>
+      <c r="J85">
+        <v>241.78984091945711</v>
+      </c>
+      <c r="K85">
+        <v>263.09567399517789</v>
+      </c>
+      <c r="L85" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>300</v>
+      </c>
+      <c r="N85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86">
+        <v>16</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D86">
+        <v>59.005393959193043</v>
+      </c>
+      <c r="E86">
+        <v>150.57214537252253</v>
+      </c>
+      <c r="F86">
+        <v>-2.8513331336763486</v>
+      </c>
+      <c r="G86">
+        <v>164.8028845409309</v>
+      </c>
+      <c r="H86">
+        <v>68.147972613613888</v>
+      </c>
+      <c r="I86">
+        <v>165.70237465817934</v>
+      </c>
+      <c r="J86">
+        <v>46.103752128211511</v>
+      </c>
+      <c r="K86">
+        <v>104.02688811132271</v>
+      </c>
+      <c r="L86" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>300</v>
+      </c>
+      <c r="N86" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87">
+        <v>15.843293556897891</v>
+      </c>
+      <c r="E87">
+        <v>162.06413851229377</v>
+      </c>
+      <c r="F87">
+        <v>96.226832019959261</v>
+      </c>
+      <c r="G87">
+        <v>165.24591698673976</v>
+      </c>
+      <c r="H87">
+        <v>160.28529611624276</v>
+      </c>
+      <c r="I87">
+        <v>175.82499478363206</v>
+      </c>
+      <c r="J87">
+        <v>173.952175808167</v>
+      </c>
+      <c r="K87">
+        <v>189.87449340602768</v>
+      </c>
+      <c r="L87" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>300</v>
+      </c>
+      <c r="N87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B88">
+        <v>24</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88">
+        <v>125.12463018976962</v>
+      </c>
+      <c r="E88">
+        <v>163.09788088584799</v>
+      </c>
+      <c r="F88">
+        <v>133.4012817910185</v>
+      </c>
+      <c r="G88">
+        <v>164.13833587221745</v>
+      </c>
+      <c r="H88">
+        <v>61.307820154836463</v>
+      </c>
+      <c r="I88">
+        <v>165.14522779451056</v>
+      </c>
+      <c r="J88">
+        <v>159.18442761453571</v>
+      </c>
+      <c r="K88">
+        <v>160.97669523621732</v>
+      </c>
+      <c r="L88" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>300</v>
+      </c>
+      <c r="N88" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="23">
+        <v>-37.380480786924124</v>
+      </c>
+      <c r="E89">
+        <v>-35.101548736134198</v>
+      </c>
+      <c r="F89">
+        <v>-34.262472134223323</v>
+      </c>
+      <c r="G89">
+        <v>-31.755311247713649</v>
+      </c>
+      <c r="H89">
+        <v>-37.014643388490981</v>
+      </c>
+      <c r="I89">
+        <v>-33.886565816567256</v>
+      </c>
+      <c r="J89">
+        <v>-36.371910711427255</v>
+      </c>
+      <c r="K89">
+        <v>-33.977186089573628</v>
+      </c>
+      <c r="L89" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90">
+        <v>-29.194449458681675</v>
+      </c>
+      <c r="E90">
+        <v>-20.506650322496512</v>
+      </c>
+      <c r="F90">
+        <v>-26.93733339954143</v>
+      </c>
+      <c r="G90">
+        <v>-16.663679485744723</v>
+      </c>
+      <c r="H90">
+        <v>-25.791154761331185</v>
+      </c>
+      <c r="I90">
+        <v>-20.12067508561752</v>
+      </c>
+      <c r="J90">
+        <v>-27.465951658745283</v>
+      </c>
+      <c r="K90">
+        <v>-18.011236508413589</v>
+      </c>
+      <c r="L90" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91">
+        <v>-36.351772872981392</v>
+      </c>
+      <c r="E91">
+        <v>-18.489510171502786</v>
+      </c>
+      <c r="F91">
+        <v>-31.934873640522568</v>
+      </c>
+      <c r="G91">
+        <v>-14.710309156496223</v>
+      </c>
+      <c r="H91">
+        <v>-33.742244641038582</v>
+      </c>
+      <c r="I91">
+        <v>-17.259423873101454</v>
+      </c>
+      <c r="J91">
+        <v>-31.66469097470727</v>
+      </c>
+      <c r="K91">
+        <v>-14.00548481089109</v>
+      </c>
+      <c r="L91" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>132</v>
+      </c>
+      <c r="D92">
+        <v>-19.352080918267163</v>
+      </c>
+      <c r="E92">
+        <v>1.8631318844472844</v>
+      </c>
+      <c r="F92">
+        <v>-21.859241804776843</v>
+      </c>
+      <c r="G92">
+        <v>-0.2530193055719252</v>
+      </c>
+      <c r="H92">
+        <v>-20.592236135891426</v>
+      </c>
+      <c r="I92">
+        <v>0.91161901788036914</v>
+      </c>
+      <c r="J92">
+        <v>-15.067755788910247</v>
+      </c>
+      <c r="K92">
+        <v>1.4083523662116022</v>
+      </c>
+      <c r="L92" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B93">
+        <v>16</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="23">
+        <v>-26.469128655675163</v>
+      </c>
+      <c r="E93">
+        <v>-13.389602585088511</v>
+      </c>
+      <c r="F93">
+        <v>-26.417105906356682</v>
+      </c>
+      <c r="G93">
+        <v>-8.1134889122729561</v>
+      </c>
+      <c r="H93">
+        <v>3.8769157290333851</v>
+      </c>
+      <c r="I93">
+        <v>40.635183505544802</v>
+      </c>
+      <c r="J93">
+        <v>-30.152674938063882</v>
+      </c>
+      <c r="K93">
+        <v>-7.856731472088228</v>
+      </c>
+      <c r="L93" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94">
+        <v>-48.202890798370525</v>
+      </c>
+      <c r="E94">
+        <v>-23.196729908222764</v>
+      </c>
+      <c r="F94">
+        <v>-43.695371292905335</v>
+      </c>
+      <c r="G94">
+        <v>-20.306950091241731</v>
+      </c>
+      <c r="H94">
+        <v>-45.482604454975487</v>
+      </c>
+      <c r="I94">
+        <v>-22.122711857776849</v>
+      </c>
+      <c r="J94">
+        <v>-43.08955798632568</v>
+      </c>
+      <c r="K94">
+        <v>-19.501436553407288</v>
+      </c>
+      <c r="L94" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D95" s="23">
+        <v>-22.510365247859681</v>
+      </c>
+      <c r="E95">
+        <v>-5.3529268919862005</v>
+      </c>
+      <c r="F95">
+        <v>-18.518038775967753</v>
+      </c>
+      <c r="G95">
+        <v>-5.2807663042218564</v>
+      </c>
+      <c r="H95">
+        <v>-22.956754000076259</v>
+      </c>
+      <c r="I95">
+        <v>-9.2059666479609064</v>
+      </c>
+      <c r="J95">
+        <v>-24.895020950490363</v>
+      </c>
+      <c r="K95">
+        <v>-9.2714146229099583</v>
+      </c>
+      <c r="L95" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96">
+        <v>81.263272570069148</v>
+      </c>
+      <c r="E96">
+        <v>84.83606074100561</v>
+      </c>
+      <c r="F96">
+        <v>6.5837768467978464</v>
+      </c>
+      <c r="G96">
+        <v>7.0586942034794049</v>
+      </c>
+      <c r="H96">
+        <v>-12.896225543164917</v>
+      </c>
+      <c r="I96">
+        <v>-11.486576851954652</v>
+      </c>
+      <c r="J96">
+        <v>6.0283081363328535</v>
+      </c>
+      <c r="K96" s="23">
+        <v>2.8096102914027483</v>
+      </c>
+      <c r="L96" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97">
+        <v>185.64608000098522</v>
+      </c>
+      <c r="E97">
+        <v>183.40574547388323</v>
+      </c>
+      <c r="F97">
+        <v>69.77799204311313</v>
+      </c>
+      <c r="G97">
+        <v>61.048239076832459</v>
+      </c>
+      <c r="H97">
+        <v>44.989991069462206</v>
+      </c>
+      <c r="I97">
+        <v>43.899191486978083</v>
+      </c>
+      <c r="J97">
+        <v>65.483597994533312</v>
+      </c>
+      <c r="K97">
+        <v>54.924658036086925</v>
+      </c>
+      <c r="L97" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" t="s">
+        <v>139</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98">
+        <v>220.42748330339467</v>
+      </c>
+      <c r="E98">
+        <v>217.63168006582762</v>
+      </c>
+      <c r="F98">
+        <v>81.228031352788889</v>
+      </c>
+      <c r="G98">
+        <v>80.002979513999009</v>
+      </c>
+      <c r="H98">
+        <v>58.304458588583913</v>
+      </c>
+      <c r="I98">
+        <v>53.102183656736514</v>
+      </c>
+      <c r="J98">
+        <v>77.437083265355568</v>
+      </c>
+      <c r="K98">
+        <v>73.63103179908785</v>
+      </c>
+      <c r="L98" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99">
+        <v>320.6367237164061</v>
+      </c>
+      <c r="E99">
+        <v>313.44751539123376</v>
+      </c>
+      <c r="F99">
+        <v>136.23285891445408</v>
+      </c>
+      <c r="G99">
+        <v>125.94410162182299</v>
+      </c>
+      <c r="H99">
+        <v>109.08201822982213</v>
+      </c>
+      <c r="I99">
+        <v>98.526434577783391</v>
+      </c>
+      <c r="J99">
+        <v>127.41919828798231</v>
+      </c>
+      <c r="K99">
+        <v>118.48638878403918</v>
+      </c>
+      <c r="L99" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100">
+        <v>16</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100">
+        <v>279.22997156530846</v>
+      </c>
+      <c r="E100">
+        <v>302.67880628230967</v>
+      </c>
+      <c r="F100">
+        <v>118.72300838577803</v>
+      </c>
+      <c r="G100">
+        <v>130.16633508263848</v>
+      </c>
+      <c r="H100">
+        <v>95.812860847203638</v>
+      </c>
+      <c r="I100">
+        <v>103.81261716982186</v>
+      </c>
+      <c r="J100">
+        <v>112.60446180464396</v>
+      </c>
+      <c r="K100" s="23">
+        <v>123.59133083006492</v>
+      </c>
+      <c r="L100" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101">
+        <v>276.01798633319368</v>
+      </c>
+      <c r="E101">
+        <v>278.10225261234018</v>
+      </c>
+      <c r="F101">
+        <v>124.41866035954902</v>
+      </c>
+      <c r="G101">
+        <v>119.58054467293096</v>
+      </c>
+      <c r="H101">
+        <v>102.93997750383457</v>
+      </c>
+      <c r="I101">
+        <v>98.412320159923496</v>
+      </c>
+      <c r="J101">
+        <v>118.86565140810288</v>
+      </c>
+      <c r="K101">
+        <v>108.09694229917878</v>
+      </c>
+      <c r="L101" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102">
+        <v>24</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102">
+        <v>194.23151179173729</v>
+      </c>
+      <c r="E102">
+        <v>195.75191859439977</v>
+      </c>
+      <c r="F102">
+        <v>117.56843898154867</v>
+      </c>
+      <c r="G102">
+        <v>117.10694685049771</v>
+      </c>
+      <c r="H102">
+        <v>112.94512690501978</v>
+      </c>
+      <c r="I102">
+        <v>112.41483049261211</v>
+      </c>
+      <c r="J102">
+        <v>97.571565404808808</v>
+      </c>
+      <c r="K102" s="23">
+        <v>90.518287489146047</v>
+      </c>
+      <c r="L102" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D103">
+        <v>164.61081141928486</v>
+      </c>
+      <c r="E103">
+        <v>165.29214162003649</v>
+      </c>
+      <c r="F103">
+        <v>126.15760890691348</v>
+      </c>
+      <c r="G103">
+        <v>112.19873055752424</v>
+      </c>
+      <c r="H103" s="23">
+        <v>140.13998140115626</v>
+      </c>
+      <c r="I103" s="23">
+        <v>152.37371825701672</v>
+      </c>
+      <c r="J103" s="23">
+        <v>236.75126134517387</v>
+      </c>
+      <c r="K103" s="23">
+        <v>243.19201334144174</v>
+      </c>
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>300</v>
+      </c>
+      <c r="N103" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" t="s">
+        <v>139</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>134</v>
+      </c>
+      <c r="D104">
+        <v>228.23631198898238</v>
+      </c>
+      <c r="E104">
+        <v>256.05002318912392</v>
+      </c>
+      <c r="F104">
+        <v>242.8832331519385</v>
+      </c>
+      <c r="G104">
+        <v>250.50876131010449</v>
+      </c>
+      <c r="H104">
+        <v>237.0835356795306</v>
+      </c>
+      <c r="I104">
+        <v>257.81208405313674</v>
+      </c>
+      <c r="J104">
+        <v>309.10987118755969</v>
+      </c>
+      <c r="K104">
+        <v>328.85502178372627</v>
+      </c>
+      <c r="L104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>300</v>
+      </c>
+      <c r="N104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" t="s">
+        <v>139</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>134</v>
+      </c>
+      <c r="D105">
+        <v>218.98297522310929</v>
+      </c>
+      <c r="E105">
+        <v>240.05722315670272</v>
+      </c>
+      <c r="F105">
+        <v>202.49344184235684</v>
+      </c>
+      <c r="G105">
+        <v>226.90385834514791</v>
+      </c>
+      <c r="H105">
+        <v>195.32437135563038</v>
+      </c>
+      <c r="I105">
+        <v>226.91728357077847</v>
+      </c>
+      <c r="J105">
+        <v>272.09316781765972</v>
+      </c>
+      <c r="K105">
+        <v>266.69622711416901</v>
+      </c>
+      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>300</v>
+      </c>
+      <c r="N105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B106">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106">
+        <v>296.77956510228785</v>
+      </c>
+      <c r="E106">
+        <v>299.12226697482299</v>
+      </c>
+      <c r="F106">
+        <v>264.26366862503778</v>
+      </c>
+      <c r="G106">
+        <v>286.57639362305167</v>
+      </c>
+      <c r="H106">
+        <v>261.63232440144532</v>
+      </c>
+      <c r="I106">
+        <v>286.16021162850393</v>
+      </c>
+      <c r="J106">
+        <v>349.72865498927138</v>
+      </c>
+      <c r="K106">
+        <v>365.95975277663536</v>
+      </c>
+      <c r="L106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>300</v>
+      </c>
+      <c r="N106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107">
+        <v>16</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107">
+        <v>105.71175392795971</v>
+      </c>
+      <c r="E107">
+        <v>182.20197695815466</v>
+      </c>
+      <c r="F107">
+        <v>162.98376646798806</v>
+      </c>
+      <c r="G107">
+        <v>163.48049981631937</v>
+      </c>
+      <c r="H107" s="23">
+        <v>133.38114395257264</v>
+      </c>
+      <c r="I107" s="23">
+        <v>168.87744051981008</v>
+      </c>
+      <c r="J107" s="23">
+        <v>215.37570949130281</v>
+      </c>
+      <c r="K107" s="23">
+        <v>132.66960699415222</v>
+      </c>
+      <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>300</v>
+      </c>
+      <c r="N107" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>134</v>
+      </c>
+      <c r="D108">
+        <v>192.7743421422316</v>
+      </c>
+      <c r="E108">
+        <v>197.36576930788794</v>
+      </c>
+      <c r="F108">
+        <v>174.55631096154286</v>
+      </c>
+      <c r="G108">
+        <v>198.80898106317466</v>
+      </c>
+      <c r="H108">
+        <v>167.85712337188647</v>
+      </c>
+      <c r="I108">
+        <v>175.02619385861294</v>
+      </c>
+      <c r="J108">
+        <v>218.39638525818202</v>
+      </c>
+      <c r="K108">
+        <v>240.76952377153339</v>
+      </c>
+      <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>300</v>
+      </c>
+      <c r="N108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109">
+        <v>24</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109">
+        <v>177.20108041076594</v>
+      </c>
+      <c r="E109">
+        <v>189.60598889341622</v>
+      </c>
+      <c r="F109">
+        <v>154.68697702829343</v>
+      </c>
+      <c r="G109">
+        <v>171.91154151231979</v>
+      </c>
+      <c r="H109" s="23">
+        <v>157.39215999285409</v>
+      </c>
+      <c r="I109" s="23">
+        <v>157.89560595400053</v>
+      </c>
+      <c r="J109" s="23">
+        <v>189.91476908291941</v>
+      </c>
+      <c r="K109" s="23">
+        <v>187.7264573051358</v>
+      </c>
+      <c r="L109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>300</v>
+      </c>
+      <c r="N109" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110">
+        <v>-31.359267091611713</v>
+      </c>
+      <c r="E110">
+        <v>-29.238081441981038</v>
+      </c>
+      <c r="F110">
+        <v>-33.607992384732853</v>
+      </c>
+      <c r="G110">
+        <v>-33.651624368032216</v>
+      </c>
+      <c r="H110">
+        <v>-30.42285760387918</v>
+      </c>
+      <c r="I110">
+        <v>-30.214766606605281</v>
+      </c>
+      <c r="J110" s="23">
+        <v>-27.588456842624268</v>
+      </c>
+      <c r="K110" s="23">
+        <v>-27.113539485942709</v>
+      </c>
+      <c r="L110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111" t="s">
+        <v>135</v>
+      </c>
+      <c r="D111">
+        <v>-6.2406699368078904</v>
+      </c>
+      <c r="E111">
+        <v>-6.0241881735148866</v>
+      </c>
+      <c r="F111">
+        <v>-10.164192127343128</v>
+      </c>
+      <c r="G111">
+        <v>-11.51174915001198</v>
+      </c>
+      <c r="H111">
+        <v>-7.2190332546359741</v>
+      </c>
+      <c r="I111">
+        <v>-11.629219874279514</v>
+      </c>
+      <c r="J111">
+        <v>-5.0172962512218504</v>
+      </c>
+      <c r="K111">
+        <v>-5.0911349921900069</v>
+      </c>
+      <c r="L111" t="b">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>135</v>
+      </c>
+      <c r="D112">
+        <v>-2.5739051864573952</v>
+      </c>
+      <c r="E112">
+        <v>-0.53998350342544654</v>
+      </c>
+      <c r="F112">
+        <v>-2.382595721221719</v>
+      </c>
+      <c r="G112">
+        <v>-3.9852320308714724</v>
+      </c>
+      <c r="H112">
+        <v>-1.6324612391133968</v>
+      </c>
+      <c r="I112">
+        <v>-2.9565241169287475</v>
+      </c>
+      <c r="J112">
+        <v>6.3958236879698092</v>
+      </c>
+      <c r="K112">
+        <v>-1.0417513113681451</v>
+      </c>
+      <c r="L112" t="b">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>135</v>
+      </c>
+      <c r="D113">
+        <v>19.465280839333531</v>
+      </c>
+      <c r="E113">
+        <v>18.814157396250692</v>
+      </c>
+      <c r="F113">
+        <v>19.676728143015069</v>
+      </c>
+      <c r="G113">
+        <v>15.442747609772823</v>
+      </c>
+      <c r="H113">
+        <v>17.409543164651893</v>
+      </c>
+      <c r="I113">
+        <v>17.721679660562742</v>
+      </c>
+      <c r="J113">
+        <v>21.027641472091574</v>
+      </c>
+      <c r="K113">
+        <v>22.002648483512004</v>
+      </c>
+      <c r="L113" t="b">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114">
+        <v>-4.8284614705679019E-2</v>
+      </c>
+      <c r="E114">
+        <v>4.3853961497913616</v>
+      </c>
+      <c r="F114">
+        <v>-0.35203034459740934</v>
+      </c>
+      <c r="G114">
+        <v>5.7530910109060898</v>
+      </c>
+      <c r="H114">
+        <v>4.0027772193200093</v>
+      </c>
+      <c r="I114">
+        <v>3.1653787706129606</v>
+      </c>
+      <c r="J114" s="23">
+        <v>10.423391377141996</v>
+      </c>
+      <c r="K114" s="23">
+        <v>9.3795800843648607</v>
+      </c>
+      <c r="L114" t="b">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>135</v>
+      </c>
+      <c r="D115">
+        <v>0.16651899538351245</v>
+      </c>
+      <c r="E115">
+        <v>-0.78835017759105597</v>
+      </c>
+      <c r="F115">
+        <v>4.4105684478486893</v>
+      </c>
+      <c r="G115">
+        <v>-1.1256589715592327</v>
+      </c>
+      <c r="H115">
+        <v>-3.7721065739861217</v>
+      </c>
+      <c r="I115">
+        <v>-1.8825060664828328</v>
+      </c>
+      <c r="J115">
+        <v>4.0111679853391138</v>
+      </c>
+      <c r="K115">
+        <v>-2.0855626041452666</v>
+      </c>
+      <c r="L115" t="b">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116">
+        <v>24</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116">
+        <v>9.978680778129231</v>
+      </c>
+      <c r="E116">
+        <v>5.0935768018041472</v>
+      </c>
+      <c r="F116">
+        <v>-1.0920959074828005</v>
+      </c>
+      <c r="G116">
+        <v>7.3943248442437408</v>
+      </c>
+      <c r="H116">
+        <v>11.683684433212122</v>
+      </c>
+      <c r="I116">
+        <v>3.1536316981862029</v>
+      </c>
+      <c r="J116" s="23">
+        <v>12.631840993371398</v>
+      </c>
+      <c r="K116" s="23">
+        <v>16.12407781052444</v>
+      </c>
+      <c r="L116" t="b">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" s="23">
+        <v>52.946115408781083</v>
+      </c>
+      <c r="E117" s="23">
+        <v>49.141742095717206</v>
+      </c>
+      <c r="F117" s="23">
+        <v>2.1517742355046323</v>
+      </c>
+      <c r="G117">
+        <v>-6.6451048589289314</v>
+      </c>
+      <c r="H117">
+        <v>53.963076250297064</v>
+      </c>
+      <c r="I117">
+        <v>46.11771002243043</v>
+      </c>
+      <c r="J117">
+        <v>-7.4825033076359801</v>
+      </c>
+      <c r="K117" s="23">
+        <v>-6.6115417948524993</v>
+      </c>
+      <c r="L117" t="b">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>136</v>
+      </c>
+      <c r="D118">
+        <v>116.71090269439577</v>
+      </c>
+      <c r="E118">
+        <v>115.72079230414096</v>
+      </c>
+      <c r="F118">
+        <v>110.98000950334452</v>
+      </c>
+      <c r="G118">
+        <v>109.29346553350368</v>
+      </c>
+      <c r="H118">
+        <v>118.28836670598821</v>
+      </c>
+      <c r="I118">
+        <v>113.36969966558669</v>
+      </c>
+      <c r="J118">
+        <v>51.652259288634525</v>
+      </c>
+      <c r="K118">
+        <v>44.416062673755164</v>
+      </c>
+      <c r="L118" t="b">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119">
+        <v>153.77459435400274</v>
+      </c>
+      <c r="E119">
+        <v>152.79623103617467</v>
+      </c>
+      <c r="F119">
+        <v>244.60463651085448</v>
+      </c>
+      <c r="G119">
+        <v>240.55860913644025</v>
+      </c>
+      <c r="H119">
+        <v>145.76476911216156</v>
+      </c>
+      <c r="I119">
+        <v>141.17334194650527</v>
+      </c>
+      <c r="J119">
+        <v>93.747054253299069</v>
+      </c>
+      <c r="K119">
+        <v>91.354007784649269</v>
+      </c>
+      <c r="L119" t="b">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120">
+        <v>238.83850210252294</v>
+      </c>
+      <c r="E120">
+        <v>226.86991345286631</v>
+      </c>
+      <c r="F120">
+        <v>377.57981822848535</v>
+      </c>
+      <c r="G120">
+        <v>360.28477130989847</v>
+      </c>
+      <c r="H120">
+        <v>220.66242475192971</v>
+      </c>
+      <c r="I120">
+        <v>215.46182797328609</v>
+      </c>
+      <c r="J120">
+        <v>216.79931607673203</v>
+      </c>
+      <c r="K120">
+        <v>209.63863635602465</v>
+      </c>
+      <c r="L120" t="b">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121">
+        <v>16</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D121" s="23">
+        <v>229.38378695219129</v>
+      </c>
+      <c r="E121" s="23">
+        <v>232.85588593089844</v>
+      </c>
+      <c r="F121" s="23">
+        <v>369.19408666898812</v>
+      </c>
+      <c r="G121">
+        <v>379.79498045753007</v>
+      </c>
+      <c r="H121">
+        <v>263.34289518472804</v>
+      </c>
+      <c r="I121">
+        <v>261.57915616751143</v>
+      </c>
+      <c r="J121">
+        <v>195.30049538257171</v>
+      </c>
+      <c r="K121" s="23">
+        <v>211.35538708353434</v>
+      </c>
+      <c r="L121" t="b">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+      <c r="C122" t="s">
+        <v>136</v>
+      </c>
+      <c r="D122">
+        <v>214.17132815954719</v>
+      </c>
+      <c r="E122">
+        <v>209.19056945060427</v>
+      </c>
+      <c r="F122">
+        <v>358.39684895559913</v>
+      </c>
+      <c r="G122">
+        <v>355.82759640054803</v>
+      </c>
+      <c r="H122">
+        <v>236.78276442784133</v>
+      </c>
+      <c r="I122">
+        <v>247.90556386277186</v>
+      </c>
+      <c r="J122">
+        <v>223.19643608970054</v>
+      </c>
+      <c r="K122">
+        <v>210.40890867657887</v>
+      </c>
+      <c r="L122" t="b">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123">
+        <v>24</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" s="23">
+        <v>196.05566432429148</v>
+      </c>
+      <c r="E123" s="23">
+        <v>191.28467476582628</v>
+      </c>
+      <c r="F123" s="23">
+        <v>332.00621167229838</v>
+      </c>
+      <c r="G123">
+        <v>330.92548100903718</v>
+      </c>
+      <c r="H123">
+        <v>250.72486124519233</v>
+      </c>
+      <c r="I123">
+        <v>254.38491338272755</v>
+      </c>
+      <c r="J123">
+        <v>226.85481007403192</v>
+      </c>
+      <c r="K123" s="23">
+        <v>214.88622142437524</v>
+      </c>
+      <c r="L123" t="b">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124">
+        <v>33254.996951202862</v>
+      </c>
+      <c r="E124">
+        <v>33124.154702207285</v>
+      </c>
+      <c r="F124">
+        <v>26895.642418522941</v>
+      </c>
+      <c r="G124">
+        <v>27710.486488170627</v>
+      </c>
+      <c r="H124">
+        <v>-3453.5629278241117</v>
+      </c>
+      <c r="I124">
+        <v>53440.865141344373</v>
+      </c>
+      <c r="J124" t="s">
+        <v>26</v>
+      </c>
+      <c r="K124" t="s">
+        <v>26</v>
+      </c>
+      <c r="L124" t="s">
+        <v>26</v>
+      </c>
+      <c r="M124" t="s">
+        <v>26</v>
+      </c>
+      <c r="N124" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" s="23">
+        <v>51.449202750972091</v>
+      </c>
+      <c r="E125" s="23">
+        <v>24.281580534301924</v>
+      </c>
+      <c r="F125" s="23">
+        <v>-6.2473825496231825</v>
+      </c>
+      <c r="G125">
+        <v>-4.6564933124001726</v>
+      </c>
+      <c r="H125" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" t="s">
+        <v>26</v>
+      </c>
+      <c r="J125" t="s">
+        <v>26</v>
+      </c>
+      <c r="K125" t="s">
+        <v>26</v>
+      </c>
+      <c r="L125" t="b">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126">
+        <v>323.68424993454641</v>
+      </c>
+      <c r="E126">
+        <v>330.20890959100529</v>
+      </c>
+      <c r="F126">
+        <v>344.78870462580858</v>
+      </c>
+      <c r="G126">
+        <v>327.98200028953386</v>
+      </c>
+      <c r="H126" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" t="s">
+        <v>26</v>
+      </c>
+      <c r="J126" t="s">
+        <v>26</v>
+      </c>
+      <c r="K126" t="s">
+        <v>26</v>
+      </c>
+      <c r="L126" t="b">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127">
+        <v>559.27010929985761</v>
+      </c>
+      <c r="E127">
+        <v>577.18103844424706</v>
+      </c>
+      <c r="F127">
+        <v>712.06931481423476</v>
+      </c>
+      <c r="G127">
+        <v>721.91168335464931</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" t="s">
+        <v>26</v>
+      </c>
+      <c r="J127" t="s">
+        <v>26</v>
+      </c>
+      <c r="K127" t="s">
+        <v>26</v>
+      </c>
+      <c r="L127" t="b">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" t="s">
+        <v>139</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128">
+        <v>829.6893947168968</v>
+      </c>
+      <c r="E128">
+        <v>831.12757201257193</v>
+      </c>
+      <c r="F128">
+        <v>1189.6079468001572</v>
+      </c>
+      <c r="G128">
+        <v>1235.2302197992549</v>
+      </c>
+      <c r="H128" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" t="s">
+        <v>26</v>
+      </c>
+      <c r="J128" t="s">
+        <v>26</v>
+      </c>
+      <c r="K128" t="s">
+        <v>26</v>
+      </c>
+      <c r="L128" t="b">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B129">
+        <v>16</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="23">
+        <v>584.35682154378878</v>
+      </c>
+      <c r="E129" s="23">
+        <v>582.69544987200527</v>
+      </c>
+      <c r="F129" s="23">
+        <v>1158.1912406714102</v>
+      </c>
+      <c r="G129">
+        <v>1128.0767814288292</v>
+      </c>
+      <c r="H129" t="s">
+        <v>26</v>
+      </c>
+      <c r="I129" t="s">
+        <v>26</v>
+      </c>
+      <c r="J129" t="s">
+        <v>26</v>
+      </c>
+      <c r="K129" t="s">
+        <v>26</v>
+      </c>
+      <c r="L129" t="b">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130">
+        <v>161.44711080187577</v>
+      </c>
+      <c r="E130">
+        <v>172.01611967954508</v>
+      </c>
+      <c r="F130">
+        <v>753.47774511853618</v>
+      </c>
+      <c r="G130">
+        <v>765.62589616100183</v>
+      </c>
+      <c r="H130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K130" t="s">
+        <v>26</v>
+      </c>
+      <c r="L130" t="b">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131">
+        <v>24</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" s="23">
+        <v>15.481345133460721</v>
+      </c>
+      <c r="E131" s="23">
+        <v>23.121976670461109</v>
+      </c>
+      <c r="F131" s="23">
+        <v>177.82588607117592</v>
+      </c>
+      <c r="G131">
+        <v>167.31896886204802</v>
+      </c>
+      <c r="H131" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" t="s">
+        <v>26</v>
+      </c>
+      <c r="J131" t="s">
+        <v>26</v>
+      </c>
+      <c r="K131" t="s">
+        <v>26</v>
+      </c>
+      <c r="L131" t="b">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65028B7A-E307-AD48-843B-BB38BCAA707B}">
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>1200000</v>
+      </c>
+      <c r="F2">
+        <v>1300000</v>
+      </c>
+      <c r="G2">
+        <v>800000</v>
+      </c>
+      <c r="H2">
+        <v>800000</v>
+      </c>
+      <c r="I2">
+        <v>1200000</v>
+      </c>
+      <c r="J2">
+        <v>1200000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>1000000</v>
+      </c>
+      <c r="F3">
+        <v>1000000</v>
+      </c>
+      <c r="G3">
+        <v>900000</v>
+      </c>
+      <c r="H3">
+        <v>2000000</v>
+      </c>
+      <c r="I3">
+        <v>2000000</v>
+      </c>
+      <c r="J3">
+        <v>2000000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>213.48308785509971</v>
+      </c>
+      <c r="F4">
+        <v>213.48308785509971</v>
+      </c>
+      <c r="G4">
+        <v>205.95739254560385</v>
+      </c>
+      <c r="H4">
+        <v>205.95739254560385</v>
+      </c>
+      <c r="I4">
+        <v>203.90815780630874</v>
+      </c>
+      <c r="J4">
+        <v>203.90815780630874</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>137.95208604531928</v>
+      </c>
+      <c r="F5">
+        <v>137.95208604531928</v>
+      </c>
+      <c r="G5">
+        <v>132.15496176684485</v>
+      </c>
+      <c r="H5">
+        <v>132.15496176684485</v>
+      </c>
+      <c r="I5">
+        <v>139.05993044436741</v>
+      </c>
+      <c r="J5">
+        <v>139.05993044436741</v>
+      </c>
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>115.15734826855783</v>
+      </c>
+      <c r="F6">
+        <v>115.15734826855783</v>
+      </c>
+      <c r="G6">
+        <v>103.19019854645495</v>
+      </c>
+      <c r="H6">
+        <v>103.19019854645495</v>
+      </c>
+      <c r="I6">
+        <v>113.85758066630109</v>
+      </c>
+      <c r="J6">
+        <v>113.85758066630109</v>
+      </c>
+      <c r="K6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>47.045231755098058</v>
+      </c>
+      <c r="F7">
+        <v>47.045231755098058</v>
+      </c>
+      <c r="G7">
+        <v>41.43655591442247</v>
+      </c>
+      <c r="H7">
+        <v>41.43655591442247</v>
+      </c>
+      <c r="I7">
+        <v>47.623107745989728</v>
+      </c>
+      <c r="J7">
+        <v>47.623107745989728</v>
+      </c>
+      <c r="K7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>30.892094787391585</v>
+      </c>
+      <c r="F8">
+        <v>30.892094787391585</v>
+      </c>
+      <c r="G8">
+        <v>25.134631140235612</v>
+      </c>
+      <c r="H8">
+        <v>25.134631140235612</v>
+      </c>
+      <c r="I8">
+        <v>32.126928238661932</v>
+      </c>
+      <c r="J8">
+        <v>32.126928238661932</v>
+      </c>
+      <c r="K8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>1100000</v>
+      </c>
+      <c r="F9">
+        <v>900000</v>
+      </c>
+      <c r="G9">
+        <v>1500000</v>
+      </c>
+      <c r="H9">
+        <v>1500000</v>
+      </c>
+      <c r="I9">
+        <v>600000</v>
+      </c>
+      <c r="J9">
+        <v>1100000</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>4000000</v>
+      </c>
+      <c r="F10">
+        <v>1000000</v>
+      </c>
+      <c r="G10">
+        <v>1000000</v>
+      </c>
+      <c r="H10">
+        <v>2000000</v>
+      </c>
+      <c r="I10">
+        <v>3000000</v>
+      </c>
+      <c r="J10">
+        <v>1000000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11">
+        <v>614.12887557006502</v>
+      </c>
+      <c r="F11">
+        <v>614.12887557006502</v>
+      </c>
+      <c r="G11">
+        <v>643.70575682622598</v>
+      </c>
+      <c r="H11">
+        <v>643.70575682622598</v>
+      </c>
+      <c r="I11">
+        <v>595.81113569688569</v>
+      </c>
+      <c r="J11">
+        <v>595.81113569688569</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>418.44357404762133</v>
+      </c>
+      <c r="F12">
+        <v>418.44357404762133</v>
+      </c>
+      <c r="G12">
+        <v>444.6252515388399</v>
+      </c>
+      <c r="H12">
+        <v>444.6252515388399</v>
+      </c>
+      <c r="I12">
+        <v>414.91188072669291</v>
+      </c>
+      <c r="J12">
+        <v>414.91188072669291</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>219.33111242330421</v>
+      </c>
+      <c r="F13">
+        <v>219.33111242330421</v>
+      </c>
+      <c r="G13">
+        <v>224.64601920635806</v>
+      </c>
+      <c r="H13">
+        <v>224.64601920635806</v>
+      </c>
+      <c r="I13">
+        <v>230.64342138232712</v>
+      </c>
+      <c r="J13">
+        <v>230.64342138232712</v>
+      </c>
+      <c r="K13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>51.857278902656134</v>
+      </c>
+      <c r="F14">
+        <v>51.857278902656134</v>
+      </c>
+      <c r="G14">
+        <v>38.629144185622479</v>
+      </c>
+      <c r="H14">
+        <v>38.629144185622479</v>
+      </c>
+      <c r="I14">
+        <v>51.827053119444599</v>
+      </c>
+      <c r="J14">
+        <v>51.827053119444599</v>
+      </c>
+      <c r="K14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>24.223783428099765</v>
+      </c>
+      <c r="F15">
+        <v>24.223783428099765</v>
+      </c>
+      <c r="G15">
+        <v>18.570627384762716</v>
+      </c>
+      <c r="H15">
+        <v>18.570627384762716</v>
+      </c>
+      <c r="I15">
+        <v>29.759461715620589</v>
+      </c>
+      <c r="J15">
+        <v>29.759461715620589</v>
+      </c>
+      <c r="K15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16">
+        <v>269.271756179938</v>
+      </c>
+      <c r="F16">
+        <v>269.271756179938</v>
+      </c>
+      <c r="G16">
+        <v>254.22036556094639</v>
+      </c>
+      <c r="H16">
+        <v>254.22036556094639</v>
+      </c>
+      <c r="I16">
+        <v>248.20801956623046</v>
+      </c>
+      <c r="J16">
+        <v>248.20801956623046</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17">
+        <v>243.77204216679453</v>
+      </c>
+      <c r="F17">
+        <v>243.77204216679453</v>
+      </c>
+      <c r="G17">
+        <v>246.91444902246448</v>
+      </c>
+      <c r="H17">
+        <v>246.91444902246448</v>
+      </c>
+      <c r="I17">
+        <v>236.62160674590066</v>
+      </c>
+      <c r="J17">
+        <v>236.62160674590066</v>
+      </c>
+      <c r="K17" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18">
+        <v>299.88818842615171</v>
+      </c>
+      <c r="F18">
+        <v>299.88818842615171</v>
+      </c>
+      <c r="G18">
+        <v>296.25760513570515</v>
+      </c>
+      <c r="H18">
+        <v>296.25760513570515</v>
+      </c>
+      <c r="I18">
+        <v>297.43423136737471</v>
+      </c>
+      <c r="J18">
+        <v>297.43423136737471</v>
+      </c>
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19">
+        <v>300.98484405044337</v>
+      </c>
+      <c r="F19">
+        <v>300.98484405044337</v>
+      </c>
+      <c r="G19">
+        <v>286.46468517646929</v>
+      </c>
+      <c r="H19">
+        <v>286.46468517646929</v>
+      </c>
+      <c r="I19">
+        <v>291.53544453626171</v>
+      </c>
+      <c r="J19">
+        <v>291.53544453626171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20">
+        <v>293.427485120553</v>
+      </c>
+      <c r="F20">
+        <v>293.427485120553</v>
+      </c>
+      <c r="G20">
+        <v>281.09706201456584</v>
+      </c>
+      <c r="H20">
+        <v>281.09706201456584</v>
+      </c>
+      <c r="I20">
+        <v>287.75114960970063</v>
+      </c>
+      <c r="J20">
+        <v>287.75114960970063</v>
+      </c>
+      <c r="K20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21">
+        <v>708.71431723744354</v>
+      </c>
+      <c r="F21">
+        <v>708.71431723744354</v>
+      </c>
+      <c r="G21">
+        <v>717.06658530317918</v>
+      </c>
+      <c r="H21">
+        <v>717.06658530317918</v>
+      </c>
+      <c r="I21">
+        <v>735.02041126488655</v>
+      </c>
+      <c r="J21">
+        <v>735.02041126488655</v>
+      </c>
+      <c r="K21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22">
+        <v>711.06264052338565</v>
+      </c>
+      <c r="F22">
+        <v>711.06264052338565</v>
+      </c>
+      <c r="G22">
+        <v>681.7071969890178</v>
+      </c>
+      <c r="H22">
+        <v>681.7071969890178</v>
+      </c>
+      <c r="I22">
+        <v>695.30194543687844</v>
+      </c>
+      <c r="J22">
+        <v>695.30194543687844</v>
+      </c>
+      <c r="K22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>757.85858955808828</v>
+      </c>
+      <c r="F23">
+        <v>757.85858955808828</v>
+      </c>
+      <c r="G23">
+        <v>748.68247030747125</v>
+      </c>
+      <c r="H23">
+        <v>748.68247030747125</v>
+      </c>
+      <c r="I23">
+        <v>758.97625403180723</v>
+      </c>
+      <c r="J23">
+        <v>758.97625403180723</v>
+      </c>
+      <c r="K23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24">
+        <v>680.35172294685253</v>
+      </c>
+      <c r="F24">
+        <v>680.35172294685253</v>
+      </c>
+      <c r="G24">
+        <v>661.59688061480165</v>
+      </c>
+      <c r="H24">
+        <v>661.59688061480165</v>
+      </c>
+      <c r="I24">
+        <v>683.11917516564404</v>
+      </c>
+      <c r="J24">
+        <v>683.11917516564404</v>
+      </c>
+      <c r="K24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25">
+        <v>658.88339886426616</v>
+      </c>
+      <c r="F25">
+        <v>658.88339886426616</v>
+      </c>
+      <c r="G25">
+        <v>647.09611282664923</v>
+      </c>
+      <c r="H25">
+        <v>647.09611282664923</v>
+      </c>
+      <c r="I25">
+        <v>668.01136781058062</v>
+      </c>
+      <c r="J25">
+        <v>668.01136781058062</v>
+      </c>
+      <c r="K25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/ROS_data_MEGA.xlsx
+++ b/data/ROS_data_MEGA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtalmy/Documents/code/metro_hastings/HOOH_dynamics/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtalmy/Documents/code/metro_hastings/HOOH_dynamics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A95E00-D303-9B44-A2DA-BC0B75436B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B97FB-95A6-9943-8EDA-005F0A2B7A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18200" yWindow="1240" windowWidth="22280" windowHeight="14020" xr2:uid="{82133392-E207-734F-898E-6135EBC32761}"/>
+    <workbookView xWindow="18200" yWindow="1240" windowWidth="22280" windowHeight="14020" firstSheet="3" activeTab="9" xr2:uid="{82133392-E207-734F-898E-6135EBC32761}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffers_Morris_2011_f1c,d" sheetId="13" r:id="rId1"/>
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32616FE2-4A93-794C-A2B0-31ED69620F12}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2630,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1A5783-389B-0641-9BCF-F5B20268FA18}">
   <dimension ref="A1:K82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
         <v>32</v>
@@ -4118,7 +4118,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
         <v>32</v>
@@ -4153,7 +4153,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D58" t="s">
         <v>32</v>
@@ -4188,7 +4188,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D59" t="s">
         <v>32</v>
@@ -4223,7 +4223,7 @@
         <v>0.25</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
         <v>32</v>
@@ -4258,7 +4258,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
         <v>32</v>
@@ -4290,7 +4290,7 @@
         <v>0.375</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D62" t="s">
         <v>32</v>
@@ -4325,7 +4325,7 @@
         <v>0.5</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
         <v>32</v>
@@ -4360,7 +4360,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D64" t="s">
         <v>32</v>
@@ -21110,7 +21110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A308A-B8BF-B641-8603-CE5606553D5A}">
   <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -31923,17 +31923,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="AD45:AE45"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AB44:AE44"/>
     <mergeCell ref="U16:V16"/>
     <mergeCell ref="T45:U45"/>
     <mergeCell ref="V45:W45"/>
@@ -31950,12 +31945,17 @@
     <mergeCell ref="AA26:AB26"/>
     <mergeCell ref="R45:S45"/>
     <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AB44:AE44"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="K26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
